--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.89621261183472</v>
+        <v>82.1167321300475</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.21615229611776</v>
+        <v>112.3557356348276</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.65587390156263</v>
+        <v>101.6326619181339</v>
       </c>
       <c r="AD2" t="n">
-        <v>57896.21261183472</v>
+        <v>82116.7321300475</v>
       </c>
       <c r="AE2" t="n">
-        <v>79216.15229611775</v>
+        <v>112355.7356348276</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.618376573186672e-06</v>
+        <v>1.409599126130997e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71655.87390156263</v>
+        <v>101632.6619181339</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.09711921525879</v>
+        <v>66.29271982893681</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.01806510675343</v>
+        <v>90.70462389830598</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.9538848579884</v>
+        <v>82.04790189821284</v>
       </c>
       <c r="AD3" t="n">
-        <v>54097.11921525879</v>
+        <v>66292.71982893681</v>
       </c>
       <c r="AE3" t="n">
-        <v>74018.06510675342</v>
+        <v>90704.62389830599</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.065658227918209e-06</v>
+        <v>1.492357942735449e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.884375</v>
       </c>
       <c r="AH3" t="n">
-        <v>66953.88485798839</v>
+        <v>82047.90189821285</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.45355133859613</v>
+        <v>78.1320121252926</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.92468066520719</v>
+        <v>106.903665930885</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.24695675613269</v>
+        <v>96.70093009470598</v>
       </c>
       <c r="AD2" t="n">
-        <v>66453.55133859612</v>
+        <v>78132.0121252926</v>
       </c>
       <c r="AE2" t="n">
-        <v>90924.6806652072</v>
+        <v>106903.665930885</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.834622034628797e-06</v>
+        <v>1.493399873401342e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.00625</v>
       </c>
       <c r="AH2" t="n">
-        <v>82246.95675613268</v>
+        <v>96700.93009470598</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.43004375102016</v>
+        <v>77.78678630731108</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.47358714417581</v>
+        <v>106.4313127364347</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.36593251148852</v>
+        <v>96.273657626182</v>
       </c>
       <c r="AD3" t="n">
-        <v>54430.04375102017</v>
+        <v>77786.78630731108</v>
       </c>
       <c r="AE3" t="n">
-        <v>74473.58714417581</v>
+        <v>106431.3127364347</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.874916446218078e-06</v>
+        <v>1.501080610123578e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.995833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>67365.93251148853</v>
+        <v>96273.657626182</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.56074673199913</v>
+        <v>97.402290859809</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.7537913004451</v>
+        <v>133.2701114401347</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.75623648162657</v>
+        <v>120.5509990500999</v>
       </c>
       <c r="AD2" t="n">
-        <v>76560.74673199913</v>
+        <v>97402.290859809</v>
       </c>
       <c r="AE2" t="n">
-        <v>104753.7913004451</v>
+        <v>133270.1114401347</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.304712643790074e-06</v>
+        <v>1.342738796947426e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.782291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94756.23648162658</v>
+        <v>120550.9990500999</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.34885040778801</v>
+        <v>80.23539510796763</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.88615658325364</v>
+        <v>109.7816073224876</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.83035497252841</v>
+        <v>99.30420479911103</v>
       </c>
       <c r="AD2" t="n">
-        <v>69348.85040778801</v>
+        <v>80235.39510796763</v>
       </c>
       <c r="AE2" t="n">
-        <v>94886.15658325364</v>
+        <v>109781.6073224876</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.144576069020605e-06</v>
+        <v>1.450595952627227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.348958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85830.35497252841</v>
+        <v>99304.20479911103</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.4901306452976</v>
+        <v>118.4125150386921</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.7585418267436</v>
+        <v>162.0172270673412</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.8973757296366</v>
+        <v>146.5545303086851</v>
       </c>
       <c r="AD2" t="n">
-        <v>98490.1306452976</v>
+        <v>118412.5150386921</v>
       </c>
       <c r="AE2" t="n">
-        <v>134758.5418267436</v>
+        <v>162017.2270673412</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.411492863487206e-06</v>
+        <v>1.205033761233152e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>121897.3757296366</v>
+        <v>146554.5303086851</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.40507666443537</v>
+        <v>66.28230699202705</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.4394260748404</v>
+        <v>90.69037659546416</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.33503172666512</v>
+        <v>82.03501433795802</v>
       </c>
       <c r="AD2" t="n">
-        <v>54405.07666443537</v>
+        <v>66282.30699202705</v>
       </c>
       <c r="AE2" t="n">
-        <v>74439.4260748404</v>
+        <v>90690.37659546416</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89750191269651e-06</v>
+        <v>1.493230968940585e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.972916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67335.03172666513</v>
+        <v>82035.01433795801</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.21356987738898</v>
+        <v>66.09080020498065</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.17739804012049</v>
+        <v>90.42834856074423</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.09801127982013</v>
+        <v>81.79799389111301</v>
       </c>
       <c r="AD3" t="n">
-        <v>54213.56987738897</v>
+        <v>66090.80020498065</v>
       </c>
       <c r="AE3" t="n">
-        <v>74177.39804012049</v>
+        <v>90428.34856074423</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.939976878006722e-06</v>
+        <v>1.501261981064042e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.9625</v>
       </c>
       <c r="AH3" t="n">
-        <v>67098.01127982013</v>
+        <v>81797.99389111302</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.7012764138811</v>
+        <v>129.3004543834784</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.098126068156</v>
+        <v>176.9145860208533</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.7729715802951</v>
+        <v>160.0301062322535</v>
       </c>
       <c r="AD2" t="n">
-        <v>109701.2764138811</v>
+        <v>129300.4543834784</v>
       </c>
       <c r="AE2" t="n">
-        <v>150098.126068156</v>
+        <v>176914.5860208533</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.806684237356022e-06</v>
+        <v>1.101964445158415e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.879166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>135772.9715802952</v>
+        <v>160030.1062322535</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.95896579471824</v>
+        <v>78.26900511535449</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.61621102138527</v>
+        <v>107.0911057835918</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.87248842568629</v>
+        <v>96.87048095094394</v>
       </c>
       <c r="AD2" t="n">
-        <v>66958.96579471824</v>
+        <v>78269.00511535449</v>
       </c>
       <c r="AE2" t="n">
-        <v>91616.21102138527</v>
+        <v>107091.1057835918</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.598622517475725e-06</v>
+        <v>1.489319512178936e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.13125</v>
       </c>
       <c r="AH2" t="n">
-        <v>82872.48842568629</v>
+        <v>96870.48095094394</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.85698884520345</v>
+        <v>78.16702816583972</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.47668166015373</v>
+        <v>106.9515764223602</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.74627555085995</v>
+        <v>96.74426807611761</v>
       </c>
       <c r="AD3" t="n">
-        <v>66856.98884520345</v>
+        <v>78167.02816583973</v>
       </c>
       <c r="AE3" t="n">
-        <v>91476.68166015373</v>
+        <v>106951.5764223602</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.631119849243357e-06</v>
+        <v>1.495688944294293e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.122916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>82746.27555085995</v>
+        <v>96744.2680761176</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.42159457785459</v>
+        <v>77.98222049783843</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.88095601532785</v>
+        <v>106.6987144178621</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.2074051254699</v>
+        <v>96.51553886643464</v>
       </c>
       <c r="AD2" t="n">
-        <v>66421.59457785459</v>
+        <v>77982.22049783843</v>
       </c>
       <c r="AE2" t="n">
-        <v>90880.95601532786</v>
+        <v>106698.7144178621</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.779237238254489e-06</v>
+        <v>1.495716340767216e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.039583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82207.4051254699</v>
+        <v>96515.53886643464</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.29592553612788</v>
+        <v>77.85655145611173</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.70901008831063</v>
+        <v>106.5267684908449</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.05186947639952</v>
+        <v>96.36000321736427</v>
       </c>
       <c r="AD3" t="n">
-        <v>66295.92553612788</v>
+        <v>77856.55145611173</v>
       </c>
       <c r="AE3" t="n">
-        <v>90709.01008831064</v>
+        <v>106526.7684908449</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.815191568054106e-06</v>
+        <v>1.502629290836173e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.030208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>82051.86947639952</v>
+        <v>96360.00321736427</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.06646788808232</v>
+        <v>67.1593233274517</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.34437072555517</v>
+        <v>91.89034903682158</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.15360973001376</v>
+        <v>83.12046309368455</v>
       </c>
       <c r="AD2" t="n">
-        <v>55066.46788808232</v>
+        <v>67159.3233274517</v>
       </c>
       <c r="AE2" t="n">
-        <v>75344.37072555517</v>
+        <v>91890.34903682157</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89441322465228e-06</v>
+        <v>1.470669307451267e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.940625</v>
       </c>
       <c r="AH2" t="n">
-        <v>68153.60973001376</v>
+        <v>83120.46309368455</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.0458259703729</v>
+        <v>66.13868140974228</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.9478834262023</v>
+        <v>90.49386173746872</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.89040121852845</v>
+        <v>81.85725458219923</v>
       </c>
       <c r="AD3" t="n">
-        <v>54045.8259703729</v>
+        <v>66138.68140974228</v>
       </c>
       <c r="AE3" t="n">
-        <v>73947.8834262023</v>
+        <v>90493.86173746872</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.033964275228697e-06</v>
+        <v>1.496666609728835e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>66890.40121852845</v>
+        <v>81857.25458219924</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.25886060490718</v>
+        <v>79.29409274799548</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.39478444799653</v>
+        <v>108.4936759062451</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.48131730070584</v>
+        <v>98.13919174961123</v>
       </c>
       <c r="AD2" t="n">
-        <v>68258.86060490718</v>
+        <v>79294.09274799548</v>
       </c>
       <c r="AE2" t="n">
-        <v>93394.78444799653</v>
+        <v>108493.6759062451</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.325923693070901e-06</v>
+        <v>1.468479466543135e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>84481.31730070584</v>
+        <v>98139.19174961123</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.34466355208041</v>
+        <v>84.07525341352392</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3534044101063</v>
+        <v>115.0354708587397</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.77581634011847</v>
+        <v>104.0566469733087</v>
       </c>
       <c r="AD2" t="n">
-        <v>73344.66355208041</v>
+        <v>84075.25341352393</v>
       </c>
       <c r="AE2" t="n">
-        <v>100353.4044101063</v>
+        <v>115035.4708587397</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.634738660348477e-06</v>
+        <v>1.388028820018425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.602083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>90775.81634011847</v>
+        <v>104056.6469733087</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.47137372580272</v>
+        <v>101.7368484372476</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.155168963794</v>
+        <v>139.2008443447674</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.2105352943053</v>
+        <v>125.9157111301523</v>
       </c>
       <c r="AD2" t="n">
-        <v>91471.37372580272</v>
+        <v>101736.8484372476</v>
       </c>
       <c r="AE2" t="n">
-        <v>125155.168963794</v>
+        <v>139200.8443447674</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.910210209155447e-06</v>
+        <v>1.284794456423927e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113210.5352943053</v>
+        <v>125915.7111301523</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.0582880228883</v>
+        <v>168.5100791914381</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.6339286084111</v>
+        <v>230.5629244896397</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.3446554219864</v>
+        <v>208.5583225735119</v>
       </c>
       <c r="AD2" t="n">
-        <v>140058.2880228883</v>
+        <v>168510.079191438</v>
       </c>
       <c r="AE2" t="n">
-        <v>191633.9286084111</v>
+        <v>230562.9244896397</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.015236078560308e-06</v>
+        <v>9.550347277766313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.772916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>173344.6554219864</v>
+        <v>208558.3225735119</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.77005284476891</v>
+        <v>78.20805779990177</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.3577319890136</v>
+        <v>107.0077149777836</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.63867826938649</v>
+        <v>96.79504884660233</v>
       </c>
       <c r="AD2" t="n">
-        <v>66770.05284476891</v>
+        <v>78208.05779990177</v>
       </c>
       <c r="AE2" t="n">
-        <v>91357.7319890136</v>
+        <v>107007.7149777836</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.680715556017584e-06</v>
+        <v>1.49050291299157e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.086458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82638.6782693865</v>
+        <v>96795.04884660232</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.65295684335847</v>
+        <v>78.09096179849131</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.19751607397291</v>
+        <v>106.8474990627429</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.49375313641279</v>
+        <v>96.65012371362862</v>
       </c>
       <c r="AD3" t="n">
-        <v>66652.95684335846</v>
+        <v>78090.96179849131</v>
       </c>
       <c r="AE3" t="n">
-        <v>91197.5160739729</v>
+        <v>106847.4990627429</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.71533624636564e-06</v>
+        <v>1.497221328670058e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.077083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>82493.75313641279</v>
+        <v>96650.12371362862</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.44128595035329</v>
+        <v>66.42811665447759</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.48896921727422</v>
+        <v>90.88987980829718</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.37984654111931</v>
+        <v>82.21547724416284</v>
       </c>
       <c r="AD2" t="n">
-        <v>54441.28595035329</v>
+        <v>66428.11665447759</v>
       </c>
       <c r="AE2" t="n">
-        <v>74488.96921727422</v>
+        <v>90889.87980829718</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.931015839940995e-06</v>
+        <v>1.488169649207864e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.947916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67379.8465411193</v>
+        <v>82215.47724416284</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.18260378498721</v>
+        <v>66.16943448911152</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.13502886636884</v>
+        <v>90.53593945739181</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.05968576054582</v>
+        <v>81.89531646358935</v>
       </c>
       <c r="AD3" t="n">
-        <v>54182.60378498721</v>
+        <v>66169.43448911152</v>
       </c>
       <c r="AE3" t="n">
-        <v>74135.02886636884</v>
+        <v>90535.93945739181</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.977128983320411e-06</v>
+        <v>1.496822283598181e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.936458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>67059.68576054582</v>
+        <v>81895.31646358935</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.8322099573498</v>
+        <v>239.3876409557113</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.5239779890803</v>
+        <v>327.5407313928095</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.0374790372333</v>
+        <v>296.2807036950808</v>
       </c>
       <c r="AD2" t="n">
-        <v>202832.2099573498</v>
+        <v>239387.6409557113</v>
       </c>
       <c r="AE2" t="n">
-        <v>277523.9779890802</v>
+        <v>327540.7313928095</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.978828857313217e-06</v>
+        <v>7.449824910213462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.662500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>251037.4790372333</v>
+        <v>296280.7036950808</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.16336184142888</v>
+        <v>81.89205746975108</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.36885117735459</v>
+        <v>112.0483258526638</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.07610467905292</v>
+        <v>101.3545908941274</v>
       </c>
       <c r="AD2" t="n">
-        <v>71163.36184142888</v>
+        <v>81892.05746975107</v>
       </c>
       <c r="AE2" t="n">
-        <v>97368.85117735459</v>
+        <v>112048.3258526638</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.899740811406158e-06</v>
+        <v>1.420852211823841e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.465625</v>
       </c>
       <c r="AH2" t="n">
-        <v>88076.10467905292</v>
+        <v>101354.5908941274</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.48841456380411</v>
+        <v>78.66447054655693</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.3406261848794</v>
+        <v>107.6321990332662</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.52776642269983</v>
+        <v>97.35993302029871</v>
       </c>
       <c r="AD2" t="n">
-        <v>67488.41456380411</v>
+        <v>78664.47054655693</v>
       </c>
       <c r="AE2" t="n">
-        <v>92340.62618487939</v>
+        <v>107632.1990332662</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.471063187408086e-06</v>
+        <v>1.480155168501847e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.191666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>83527.76642269983</v>
+        <v>97359.93302029872</v>
       </c>
     </row>
   </sheetData>
